--- a/docs/shrcore/shr-core-RadiationProcedure.xlsx
+++ b/docs/shrcore/shr-core-RadiationProcedure.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$75</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="425">
   <si>
     <t>Path</t>
   </si>
@@ -482,6 +482,26 @@
     <t>The point in time when the statement was created.</t>
   </si>
   <si>
+    <t>personauthor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PersonAuthor-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A human author, patient, practitioner, or related person, as opposed to an organization or device.</t>
+  </si>
+  <si>
+    <t>personinformationsource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PersonInformationSource-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The person who provided the information, not necessarily the patient.</t>
+  </si>
+  <si>
     <t>treatmentintent</t>
   </si>
   <si>
@@ -823,7 +843,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EpisodeOfCare]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter]]}
 </t>
   </si>
   <si>
@@ -1211,7 +1231,7 @@
     <t>Procedure.complicationDetail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Condition]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Condition]]}
 </t>
   </si>
   <si>
@@ -1503,7 +1523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN73"/>
+  <dimension ref="A1:AM75"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3885,7 +3905,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3968,7 +3988,7 @@
         <v>139</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>40</v>
@@ -3990,11 +4010,11 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4077,7 +4097,7 @@
         <v>139</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>40</v>
@@ -4087,7 +4107,7 @@
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>40</v>
@@ -4099,11 +4119,11 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4183,9 +4203,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>40</v>
       </c>
@@ -4206,13 +4228,11 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>63</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="K25" s="2"/>
       <c r="L25" t="s" s="2">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4263,13 +4283,13 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>40</v>
@@ -4281,7 +4301,7 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -4292,9 +4312,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>40</v>
       </c>
@@ -4303,7 +4325,7 @@
         <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>40</v>
@@ -4315,13 +4337,11 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="K26" s="2"/>
       <c r="L26" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4372,7 +4392,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4401,7 +4421,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4409,7 +4429,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>49</v>
@@ -4424,13 +4444,13 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4439,7 +4459,7 @@
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>40</v>
@@ -4481,10 +4501,10 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>49</v>
@@ -4510,7 +4530,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4518,10 +4538,10 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>40</v>
@@ -4533,13 +4553,13 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4566,11 +4586,13 @@
         <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="X28" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y28" t="s" s="2">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>40</v>
@@ -4588,13 +4610,13 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>40</v>
@@ -4606,7 +4628,7 @@
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
@@ -4617,47 +4639,45 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>40</v>
@@ -4699,13 +4719,13 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>40</v>
@@ -4728,7 +4748,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4736,10 +4756,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>40</v>
@@ -4748,21 +4768,19 @@
         <v>40</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>186</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4786,13 +4804,11 @@
         <v>40</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>40</v>
@@ -4810,13 +4826,13 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>40</v>
@@ -4828,22 +4844,22 @@
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>189</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4856,21 +4872,23 @@
         <v>40</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>191</v>
+        <v>69</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4919,7 +4937,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4937,7 +4955,7 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -4948,18 +4966,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>40</v>
@@ -4971,16 +4989,18 @@
         <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
       </c>
@@ -5028,7 +5048,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5046,29 +5066,29 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>40</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>40</v>
@@ -5080,17 +5100,15 @@
         <v>50</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -5139,7 +5157,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5157,7 +5175,7 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
@@ -5166,42 +5184,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>115</v>
+        <v>203</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -5226,11 +5242,13 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="X34" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y34" t="s" s="2">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -5248,13 +5266,13 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
@@ -5263,13 +5281,13 @@
         <v>40</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>40</v>
@@ -5277,43 +5295,43 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
@@ -5359,13 +5377,13 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
@@ -5377,7 +5395,7 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
@@ -5386,9 +5404,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5396,30 +5414,32 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -5444,13 +5464,11 @@
         <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>40</v>
@@ -5468,28 +5486,28 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>49</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
@@ -5497,7 +5515,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5508,30 +5526,32 @@
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
@@ -5553,13 +5573,13 @@
         <v>40</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>232</v>
+        <v>40</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>233</v>
+        <v>40</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>40</v>
@@ -5577,7 +5597,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5595,32 +5615,32 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>237</v>
+        <v>40</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>40</v>
@@ -5629,18 +5649,16 @@
         <v>50</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>240</v>
-      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5664,11 +5682,13 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="X38" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="Y38" t="s" s="2">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>40</v>
@@ -5686,7 +5706,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5695,41 +5715,41 @@
         <v>49</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>40</v>
+        <v>233</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>243</v>
+        <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>244</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>246</v>
+        <v>40</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>40</v>
@@ -5738,13 +5758,13 @@
         <v>50</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>247</v>
+        <v>178</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5771,13 +5791,13 @@
         <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>40</v>
@@ -5795,10 +5815,10 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>49</v>
@@ -5810,35 +5830,35 @@
         <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>245</v>
+        <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>252</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>40</v>
@@ -5847,16 +5867,18 @@
         <v>50</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>255</v>
+        <v>178</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5880,13 +5902,11 @@
         <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>40</v>
+        <v>247</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
@@ -5904,7 +5924,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5919,25 +5939,25 @@
         <v>40</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>40</v>
+        <v>252</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5956,13 +5976,13 @@
         <v>50</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6013,10 +6033,10 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>49</v>
@@ -6028,32 +6048,32 @@
         <v>40</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>40</v>
+        <v>260</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>40</v>
@@ -6065,13 +6085,13 @@
         <v>50</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6122,36 +6142,36 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>272</v>
+        <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>40</v>
+        <v>265</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>40</v>
+        <v>266</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6159,28 +6179,28 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>62</v>
+        <v>268</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>63</v>
+        <v>269</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6231,7 +6251,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>65</v>
+        <v>267</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6246,25 +6266,25 @@
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>40</v>
+        <v>267</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>66</v>
+        <v>271</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>40</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6280,20 +6300,18 @@
         <v>40</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>69</v>
+        <v>275</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>70</v>
+        <v>276</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>40</v>
@@ -6342,7 +6360,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>76</v>
+        <v>274</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6354,13 +6372,13 @@
         <v>40</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>40</v>
+        <v>278</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>66</v>
+        <v>279</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
@@ -6371,40 +6389,38 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>277</v>
+        <v>40</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>40</v>
@@ -6453,13 +6469,13 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>279</v>
+        <v>65</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>40</v>
@@ -6471,7 +6487,7 @@
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
@@ -6482,18 +6498,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>40</v>
@@ -6502,18 +6518,20 @@
         <v>40</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>281</v>
+        <v>70</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>40</v>
@@ -6538,13 +6556,13 @@
         <v>40</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>284</v>
+        <v>40</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>40</v>
@@ -6562,13 +6580,13 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>40</v>
@@ -6580,52 +6598,52 @@
         <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>285</v>
+        <v>66</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>286</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>40</v>
+        <v>283</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>288</v>
+        <v>69</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>289</v>
+        <v>185</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>40</v>
       </c>
@@ -6673,13 +6691,13 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>40</v>
@@ -6691,18 +6709,18 @@
         <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>292</v>
+        <v>138</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>293</v>
+        <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>294</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6722,21 +6740,19 @@
         <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>296</v>
+        <v>178</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>299</v>
-      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>40</v>
       </c>
@@ -6760,13 +6776,13 @@
         <v>40</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>40</v>
@@ -6784,7 +6800,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6802,18 +6818,18 @@
         <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>40</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6821,7 +6837,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>49</v>
@@ -6836,17 +6852,17 @@
         <v>50</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -6895,10 +6911,10 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>49</v>
@@ -6913,18 +6929,18 @@
         <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>40</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6944,19 +6960,21 @@
         <v>40</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>172</v>
+        <v>302</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>40</v>
       </c>
@@ -6980,13 +6998,13 @@
         <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>311</v>
+        <v>40</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>312</v>
+        <v>40</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>40</v>
@@ -7004,13 +7022,13 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>40</v>
@@ -7022,10 +7040,10 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>314</v>
+        <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>40</v>
@@ -7033,7 +7051,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7056,18 +7074,18 @@
         <v>50</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>40</v>
       </c>
@@ -7115,13 +7133,13 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>40</v>
@@ -7133,10 +7151,10 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>40</v>
@@ -7144,7 +7162,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7155,7 +7173,7 @@
         <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>40</v>
@@ -7167,13 +7185,13 @@
         <v>50</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7200,11 +7218,13 @@
         <v>40</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="X52" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="Y52" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>40</v>
@@ -7222,7 +7242,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7240,18 +7260,18 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>325</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7271,18 +7291,20 @@
         <v>40</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>62</v>
+        <v>322</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>63</v>
+        <v>323</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>40</v>
@@ -7331,13 +7353,13 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>65</v>
+        <v>321</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>40</v>
@@ -7349,10 +7371,10 @@
         <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>66</v>
+        <v>319</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>40</v>
@@ -7360,11 +7382,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7380,20 +7402,18 @@
         <v>40</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>69</v>
+        <v>178</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>70</v>
+        <v>327</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7418,31 +7438,29 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>40</v>
+        <v>329</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>76</v>
+        <v>326</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7460,22 +7478,20 @@
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>66</v>
+        <v>330</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>40</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
         <v>40</v>
       </c>
@@ -7484,7 +7500,7 @@
         <v>41</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>40</v>
@@ -7496,11 +7512,13 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="K55" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>63</v>
+      </c>
       <c r="L55" t="s" s="2">
-        <v>330</v>
+        <v>64</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7551,13 +7569,13 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>40</v>
@@ -7569,7 +7587,7 @@
         <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
@@ -7580,13 +7598,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7605,13 +7621,17 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="K56" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="L56" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>40</v>
@@ -7648,16 +7668,16 @@
         <v>40</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AE56" t="s" s="2">
         <v>76</v>
@@ -7678,7 +7698,7 @@
         <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
@@ -7689,7 +7709,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>334</v>
@@ -7798,9 +7818,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B58" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
         <v>40</v>
       </c>
@@ -7818,23 +7840,17 @@
         <v>40</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K58" t="s" s="2">
         <v>338</v>
       </c>
+      <c r="K58" s="2"/>
       <c r="L58" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M58" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>341</v>
-      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>40</v>
       </c>
@@ -7881,11 +7897,15 @@
       <c r="AD58" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE58" s="2"/>
+      <c r="AE58" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG58" s="2"/>
+      <c r="AG58" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH58" t="s" s="2">
         <v>40</v>
       </c>
@@ -7896,20 +7916,22 @@
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>342</v>
+        <v>40</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>343</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B59" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="C59" t="s" s="2">
         <v>40</v>
       </c>
@@ -7918,7 +7940,7 @@
         <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>40</v>
@@ -7927,23 +7949,17 @@
         <v>40</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="K59" s="2"/>
       <c r="L59" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>40</v>
       </c>
@@ -7990,11 +8006,15 @@
       <c r="AD59" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE59" s="2"/>
+      <c r="AE59" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG59" s="2"/>
+      <c r="AG59" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH59" t="s" s="2">
         <v>40</v>
       </c>
@@ -8005,18 +8025,18 @@
         <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>349</v>
+        <v>40</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>350</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8027,7 +8047,7 @@
         <v>41</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>40</v>
@@ -8039,18 +8059,20 @@
         <v>50</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
       </c>
@@ -8074,13 +8096,13 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>355</v>
+        <v>40</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>356</v>
+        <v>40</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>40</v>
@@ -8097,15 +8119,11 @@
       <c r="AD60" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE60" t="s" s="2">
-        <v>351</v>
-      </c>
+      <c r="AE60" s="2"/>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG60" t="s" s="2">
-        <v>49</v>
-      </c>
+      <c r="AG60" s="2"/>
       <c r="AH60" t="s" s="2">
         <v>40</v>
       </c>
@@ -8116,18 +8134,18 @@
         <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>40</v>
+        <v>349</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8138,7 +8156,7 @@
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>40</v>
@@ -8147,21 +8165,23 @@
         <v>40</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>359</v>
+        <v>62</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>40</v>
       </c>
@@ -8208,15 +8228,11 @@
       <c r="AD61" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE61" t="s" s="2">
-        <v>358</v>
-      </c>
+      <c r="AE61" s="2"/>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG61" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG61" s="2"/>
       <c r="AH61" t="s" s="2">
         <v>40</v>
       </c>
@@ -8227,18 +8243,18 @@
         <v>40</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>40</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8249,7 +8265,7 @@
         <v>41</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>40</v>
@@ -8258,19 +8274,19 @@
         <v>40</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8299,10 +8315,10 @@
         <v>106</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>40</v>
@@ -8320,13 +8336,13 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>40</v>
@@ -8338,7 +8354,7 @@
         <v>40</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>40</v>
@@ -8349,7 +8365,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8372,18 +8388,18 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>40</v>
       </c>
@@ -8431,7 +8447,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8449,7 +8465,7 @@
         <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
@@ -8460,7 +8476,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8483,15 +8499,17 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>40</v>
@@ -8519,10 +8537,10 @@
         <v>106</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>40</v>
@@ -8540,7 +8558,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8558,7 +8576,7 @@
         <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
@@ -8569,7 +8587,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8592,16 +8610,18 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>40</v>
       </c>
@@ -8649,7 +8669,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8667,18 +8687,18 @@
         <v>40</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>387</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8689,7 +8709,7 @@
         <v>41</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>40</v>
@@ -8701,13 +8721,13 @@
         <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>269</v>
+        <v>178</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8734,13 +8754,13 @@
         <v>40</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>40</v>
+        <v>385</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>40</v>
+        <v>386</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>40</v>
@@ -8758,7 +8778,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8770,13 +8790,13 @@
         <v>40</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>272</v>
+        <v>40</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>40</v>
@@ -8787,7 +8807,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8798,7 +8818,7 @@
         <v>41</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>40</v>
@@ -8810,13 +8830,13 @@
         <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>62</v>
+        <v>389</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>63</v>
+        <v>390</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>64</v>
+        <v>391</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8867,13 +8887,13 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>65</v>
+        <v>388</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>40</v>
@@ -8885,29 +8905,29 @@
         <v>40</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>66</v>
+        <v>392</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>40</v>
+        <v>393</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>40</v>
@@ -8919,17 +8939,15 @@
         <v>40</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>69</v>
+        <v>275</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>70</v>
+        <v>395</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>40</v>
@@ -8978,7 +8996,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>76</v>
+        <v>394</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -8990,13 +9008,13 @@
         <v>40</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>40</v>
+        <v>278</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>66</v>
+        <v>397</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>40</v>
@@ -9007,40 +9025,38 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>277</v>
+        <v>40</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>40</v>
@@ -9089,13 +9105,13 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>279</v>
+        <v>65</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>40</v>
@@ -9107,7 +9123,7 @@
         <v>40</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>40</v>
@@ -9118,18 +9134,18 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>40</v>
@@ -9141,15 +9157,17 @@
         <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>396</v>
+        <v>70</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>40</v>
@@ -9174,13 +9192,13 @@
         <v>40</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>398</v>
+        <v>40</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>399</v>
+        <v>40</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>40</v>
@@ -9198,13 +9216,13 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>395</v>
+        <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>40</v>
@@ -9216,7 +9234,7 @@
         <v>40</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>400</v>
+        <v>66</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
@@ -9227,38 +9245,40 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>40</v>
+        <v>283</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>402</v>
+        <v>69</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>403</v>
+        <v>185</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>40</v>
@@ -9307,13 +9327,13 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>401</v>
+        <v>285</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>40</v>
@@ -9325,7 +9345,7 @@
         <v>40</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>405</v>
+        <v>138</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>40</v>
@@ -9336,7 +9356,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9347,7 +9367,7 @@
         <v>41</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>40</v>
@@ -9359,20 +9379,16 @@
         <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>407</v>
+        <v>178</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>40</v>
       </c>
@@ -9396,13 +9412,13 @@
         <v>40</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>40</v>
+        <v>404</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>40</v>
+        <v>405</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>40</v>
@@ -9420,25 +9436,25 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>40</v>
@@ -9449,7 +9465,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9457,10 +9473,10 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>40</v>
@@ -9472,17 +9488,15 @@
         <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>172</v>
+        <v>408</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M73" t="s" s="2">
         <v>410</v>
       </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>40</v>
@@ -9507,59 +9521,283 @@
         <v>40</v>
       </c>
       <c r="W73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W75" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="X73" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG73" t="s" s="2">
+      <c r="X75" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG75" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AH73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM73" t="s" s="2">
+      <c r="AH75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM73">
+  <autoFilter ref="A1:AM75">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9569,7 +9807,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI72">
+  <conditionalFormatting sqref="A2:AI74">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
